--- a/Alfa_Exp_Record_sort.xlsx
+++ b/Alfa_Exp_Record_sort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binxu\Documents\Monkey_Visual_Experiment_Data_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCA2089-BEFC-4394-A0AB-D287815B31CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F300C-EDE5-40AE-B436-5446611E9CF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="1582">
   <si>
     <t>ephysFN</t>
   </si>
@@ -5421,15 +5421,6 @@
 011 – error</t>
   </si>
   <si>
-    <t>012 at 1252 PM
-selectivity-manifold
-ch 29 (-0.5,-1.7) 4
-80 ms reward, at 1:09, bumped him up tp 100 ms reward
-Bumped to 150, hes been working for over 2 hours, had over 250
-Bumped him up, just going to finish him out. Stopped after 9 blocks, 325 mL
-completed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Two blocks completed
 completed
 </t>
@@ -6549,6 +6540,18 @@
   </si>
   <si>
     <t>Ch. 1 [-2 –3] 2 1, one SU (1/5, new), one hashStarting to lose unit already... merpVery suppressed.  Will go to 20 generations, in case anything crazy happensStart: 11:51 pm, 35 ms rewardStopped, not visually responsive</t>
+  </si>
+  <si>
+    <t>012 at 1252 PM
+selectivity-manifold
+ch 29 (-0.5,-1.7) 4
+80 ms reward, at 1:09, bumped him up tp 100 ms reward
+Bumped to 150, hes been working for over 2 hours, had over 250
+Bumped him up, just going to finish him out. Stopped after 9 blocks, 325 mL
+completed`</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-Manifold\alfa-191119a selectivity</t>
   </si>
 </sst>
 </file>
@@ -6607,10 +6610,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6952,8 +6958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B385" workbookViewId="0">
-      <selection activeCell="D393" sqref="D393"/>
+    <sheetView tabSelected="1" topLeftCell="B257" workbookViewId="0">
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10459,7 +10465,7 @@
         <v>1361</v>
       </c>
       <c r="F219" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -11216,7 +11222,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11226,8 +11232,11 @@
       <c r="C270" t="s">
         <v>708</v>
       </c>
-      <c r="E270" t="s">
-        <v>1412</v>
+      <c r="D270" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -11244,7 +11253,7 @@
         <v>1029</v>
       </c>
       <c r="E271" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -11261,7 +11270,7 @@
         <v>1030</v>
       </c>
       <c r="E272" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -11275,7 +11284,7 @@
         <v>711</v>
       </c>
       <c r="E273" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -11289,7 +11298,7 @@
         <v>712</v>
       </c>
       <c r="E274" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -11306,7 +11315,7 @@
         <v>1031</v>
       </c>
       <c r="E275" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -11320,7 +11329,7 @@
         <v>714</v>
       </c>
       <c r="E276" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -11334,7 +11343,7 @@
         <v>715</v>
       </c>
       <c r="E277" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -11348,7 +11357,7 @@
         <v>716</v>
       </c>
       <c r="E278" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -11362,7 +11371,7 @@
         <v>717</v>
       </c>
       <c r="E279" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -11379,7 +11388,7 @@
         <v>1032</v>
       </c>
       <c r="E280" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -11396,7 +11405,7 @@
         <v>1033</v>
       </c>
       <c r="E281" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -11413,7 +11422,7 @@
         <v>1034</v>
       </c>
       <c r="E282" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -11430,7 +11439,7 @@
         <v>1034</v>
       </c>
       <c r="E283" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -11444,7 +11453,7 @@
         <v>722</v>
       </c>
       <c r="E284" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -11458,7 +11467,7 @@
         <v>723</v>
       </c>
       <c r="E285" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -11475,7 +11484,7 @@
         <v>1035</v>
       </c>
       <c r="E286" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -11492,7 +11501,7 @@
         <v>1036</v>
       </c>
       <c r="E287" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -11506,7 +11515,7 @@
         <v>726</v>
       </c>
       <c r="E288" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -11523,7 +11532,7 @@
         <v>1037</v>
       </c>
       <c r="E289" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -11537,7 +11546,7 @@
         <v>728</v>
       </c>
       <c r="E290" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -11554,7 +11563,7 @@
         <v>1038</v>
       </c>
       <c r="E291" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -11571,7 +11580,7 @@
         <v>1039</v>
       </c>
       <c r="E292" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -11588,7 +11597,7 @@
         <v>1040</v>
       </c>
       <c r="E293" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -11602,7 +11611,7 @@
         <v>732</v>
       </c>
       <c r="E294" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -11619,7 +11628,7 @@
         <v>1041</v>
       </c>
       <c r="E295" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -11636,7 +11645,7 @@
         <v>1042</v>
       </c>
       <c r="E296" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -11653,7 +11662,7 @@
         <v>1043</v>
       </c>
       <c r="E297" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -11667,7 +11676,7 @@
         <v>736</v>
       </c>
       <c r="E298" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -11684,7 +11693,7 @@
         <v>1044</v>
       </c>
       <c r="E299" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -11701,7 +11710,7 @@
         <v>1045</v>
       </c>
       <c r="E300" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -11718,7 +11727,7 @@
         <v>1046</v>
       </c>
       <c r="E301" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -11732,7 +11741,7 @@
         <v>740</v>
       </c>
       <c r="E302" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -11749,7 +11758,7 @@
         <v>1047</v>
       </c>
       <c r="E303" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -11766,7 +11775,7 @@
         <v>1048</v>
       </c>
       <c r="E304" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -11780,7 +11789,7 @@
         <v>743</v>
       </c>
       <c r="E305" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -11797,7 +11806,7 @@
         <v>1049</v>
       </c>
       <c r="E306" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -11814,7 +11823,7 @@
         <v>1050</v>
       </c>
       <c r="E307" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -11831,7 +11840,7 @@
         <v>1051</v>
       </c>
       <c r="E308" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -11845,7 +11854,7 @@
         <v>747</v>
       </c>
       <c r="E309" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -11862,7 +11871,7 @@
         <v>1052</v>
       </c>
       <c r="E310" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -11879,7 +11888,7 @@
         <v>1053</v>
       </c>
       <c r="E311" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -11896,7 +11905,7 @@
         <v>1054</v>
       </c>
       <c r="E312" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -11910,7 +11919,7 @@
         <v>751</v>
       </c>
       <c r="E313" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -11927,7 +11936,7 @@
         <v>1055</v>
       </c>
       <c r="E314" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -11944,7 +11953,7 @@
         <v>1056</v>
       </c>
       <c r="E315" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -11961,7 +11970,7 @@
         <v>1057</v>
       </c>
       <c r="E316" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -11975,7 +11984,7 @@
         <v>755</v>
       </c>
       <c r="E317" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -11992,7 +12001,7 @@
         <v>1058</v>
       </c>
       <c r="E318" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -12009,7 +12018,7 @@
         <v>1059</v>
       </c>
       <c r="E319" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -12023,7 +12032,7 @@
         <v>758</v>
       </c>
       <c r="E320" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -12040,7 +12049,7 @@
         <v>1060</v>
       </c>
       <c r="E321" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -12054,7 +12063,7 @@
         <v>760</v>
       </c>
       <c r="E322" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -12068,7 +12077,7 @@
         <v>761</v>
       </c>
       <c r="E323" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -12082,7 +12091,7 @@
         <v>762</v>
       </c>
       <c r="E324" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -12099,7 +12108,7 @@
         <v>1061</v>
       </c>
       <c r="E325" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -12116,7 +12125,7 @@
         <v>1062</v>
       </c>
       <c r="E326" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -12130,7 +12139,7 @@
         <v>765</v>
       </c>
       <c r="E327" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -12147,7 +12156,7 @@
         <v>1063</v>
       </c>
       <c r="E328" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -12164,7 +12173,7 @@
         <v>1064</v>
       </c>
       <c r="E329" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -12181,7 +12190,7 @@
         <v>1065</v>
       </c>
       <c r="E330" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -12195,7 +12204,7 @@
         <v>769</v>
       </c>
       <c r="E331" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -12209,7 +12218,7 @@
         <v>770</v>
       </c>
       <c r="E332" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -12226,7 +12235,7 @@
         <v>1066</v>
       </c>
       <c r="E333" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -12243,7 +12252,7 @@
         <v>1067</v>
       </c>
       <c r="E334" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -12260,7 +12269,7 @@
         <v>1068</v>
       </c>
       <c r="E335" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -12274,7 +12283,7 @@
         <v>774</v>
       </c>
       <c r="E336" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -12288,7 +12297,7 @@
         <v>775</v>
       </c>
       <c r="E337" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -12305,7 +12314,7 @@
         <v>1069</v>
       </c>
       <c r="E338" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -12322,7 +12331,7 @@
         <v>1070</v>
       </c>
       <c r="E339" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -12339,7 +12348,7 @@
         <v>1071</v>
       </c>
       <c r="E340" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -12353,7 +12362,7 @@
         <v>779</v>
       </c>
       <c r="E341" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -12367,7 +12376,7 @@
         <v>780</v>
       </c>
       <c r="E342" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -12384,7 +12393,7 @@
         <v>1072</v>
       </c>
       <c r="E343" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -12401,7 +12410,7 @@
         <v>1073</v>
       </c>
       <c r="E344" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -12418,7 +12427,7 @@
         <v>1074</v>
       </c>
       <c r="E345" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -12432,7 +12441,7 @@
         <v>784</v>
       </c>
       <c r="E346" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -12449,7 +12458,7 @@
         <v>1075</v>
       </c>
       <c r="E347" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -12466,7 +12475,7 @@
         <v>1076</v>
       </c>
       <c r="E348" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -12483,7 +12492,7 @@
         <v>1077</v>
       </c>
       <c r="E349" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -12497,7 +12506,7 @@
         <v>788</v>
       </c>
       <c r="E350" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -12514,7 +12523,7 @@
         <v>1078</v>
       </c>
       <c r="E351" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -12531,7 +12540,7 @@
         <v>1079</v>
       </c>
       <c r="E352" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -12548,7 +12557,7 @@
         <v>1080</v>
       </c>
       <c r="E353" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -12562,7 +12571,7 @@
         <v>792</v>
       </c>
       <c r="E354" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -12579,7 +12588,7 @@
         <v>1081</v>
       </c>
       <c r="E355" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -12596,7 +12605,7 @@
         <v>1082</v>
       </c>
       <c r="E356" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -12613,7 +12622,7 @@
         <v>1083</v>
       </c>
       <c r="E357" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -12627,7 +12636,7 @@
         <v>796</v>
       </c>
       <c r="E358" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -12644,7 +12653,7 @@
         <v>1084</v>
       </c>
       <c r="E359" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -12661,7 +12670,7 @@
         <v>1085</v>
       </c>
       <c r="E360" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -12678,7 +12687,7 @@
         <v>1086</v>
       </c>
       <c r="E361" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -12692,7 +12701,7 @@
         <v>800</v>
       </c>
       <c r="E362" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -12706,7 +12715,7 @@
         <v>801</v>
       </c>
       <c r="E363" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -12723,7 +12732,7 @@
         <v>1087</v>
       </c>
       <c r="E364" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -12737,7 +12746,7 @@
         <v>803</v>
       </c>
       <c r="E365" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -12754,7 +12763,7 @@
         <v>1088</v>
       </c>
       <c r="E366" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -12771,7 +12780,7 @@
         <v>1089</v>
       </c>
       <c r="E367" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -12788,7 +12797,7 @@
         <v>1090</v>
       </c>
       <c r="E368" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -12802,7 +12811,7 @@
         <v>807</v>
       </c>
       <c r="E369" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -12819,7 +12828,7 @@
         <v>1091</v>
       </c>
       <c r="E370" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -12833,7 +12842,7 @@
         <v>809</v>
       </c>
       <c r="E371" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -12850,7 +12859,7 @@
         <v>1092</v>
       </c>
       <c r="E372" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -12867,7 +12876,7 @@
         <v>1093</v>
       </c>
       <c r="E373" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -12884,7 +12893,7 @@
         <v>1094</v>
       </c>
       <c r="E374" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -12898,7 +12907,7 @@
         <v>813</v>
       </c>
       <c r="E375" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -12915,7 +12924,7 @@
         <v>1095</v>
       </c>
       <c r="E376" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -12932,7 +12941,7 @@
         <v>1096</v>
       </c>
       <c r="E377" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -12946,7 +12955,7 @@
         <v>816</v>
       </c>
       <c r="E378" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -12960,7 +12969,7 @@
         <v>817</v>
       </c>
       <c r="E379" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -12977,7 +12986,7 @@
         <v>1097</v>
       </c>
       <c r="E380" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -12994,7 +13003,7 @@
         <v>1098</v>
       </c>
       <c r="E381" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -13011,7 +13020,7 @@
         <v>1099</v>
       </c>
       <c r="E382" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -13025,7 +13034,7 @@
         <v>821</v>
       </c>
       <c r="E383" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -13042,7 +13051,7 @@
         <v>1100</v>
       </c>
       <c r="E384" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -13059,7 +13068,7 @@
         <v>1101</v>
       </c>
       <c r="E385" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -13076,7 +13085,7 @@
         <v>1102</v>
       </c>
       <c r="E386" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -13093,7 +13102,7 @@
         <v>1103</v>
       </c>
       <c r="E387" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -13110,7 +13119,7 @@
         <v>1104</v>
       </c>
       <c r="E388" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -13124,7 +13133,7 @@
         <v>827</v>
       </c>
       <c r="E389" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -13141,7 +13150,7 @@
         <v>1105</v>
       </c>
       <c r="E390" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -13158,7 +13167,7 @@
         <v>1106</v>
       </c>
       <c r="E391" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -13175,7 +13184,7 @@
         <v>1107</v>
       </c>
       <c r="E392" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -13189,7 +13198,7 @@
         <v>831</v>
       </c>
       <c r="E393" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -13206,7 +13215,7 @@
         <v>1108</v>
       </c>
       <c r="E394" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -13223,7 +13232,7 @@
         <v>1109</v>
       </c>
       <c r="E395" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -13240,7 +13249,7 @@
         <v>1110</v>
       </c>
       <c r="E396" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -13254,7 +13263,7 @@
         <v>835</v>
       </c>
       <c r="E397" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -13271,7 +13280,7 @@
         <v>1111</v>
       </c>
       <c r="E398" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -13288,7 +13297,7 @@
         <v>1112</v>
       </c>
       <c r="E399" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -13305,7 +13314,7 @@
         <v>1113</v>
       </c>
       <c r="E400" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -13322,7 +13331,7 @@
         <v>1114</v>
       </c>
       <c r="E401" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -13336,7 +13345,7 @@
         <v>840</v>
       </c>
       <c r="E402" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -13353,7 +13362,7 @@
         <v>1115</v>
       </c>
       <c r="E403" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -13370,7 +13379,7 @@
         <v>1116</v>
       </c>
       <c r="E404" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -13384,7 +13393,7 @@
         <v>843</v>
       </c>
       <c r="E405" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -13398,7 +13407,7 @@
         <v>844</v>
       </c>
       <c r="E406" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -13415,7 +13424,7 @@
         <v>1117</v>
       </c>
       <c r="E407" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -13432,7 +13441,7 @@
         <v>1118</v>
       </c>
       <c r="E408" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -13449,7 +13458,7 @@
         <v>1119</v>
       </c>
       <c r="E409" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -13466,7 +13475,7 @@
         <v>1120</v>
       </c>
       <c r="E410" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -13480,7 +13489,7 @@
         <v>849</v>
       </c>
       <c r="E411" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -13494,7 +13503,7 @@
         <v>850</v>
       </c>
       <c r="E412" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -13511,7 +13520,7 @@
         <v>1121</v>
       </c>
       <c r="E413" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -13525,7 +13534,7 @@
         <v>852</v>
       </c>
       <c r="E414" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -13539,7 +13548,7 @@
         <v>853</v>
       </c>
       <c r="E415" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -13556,7 +13565,7 @@
         <v>1122</v>
       </c>
       <c r="E416" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -13573,7 +13582,7 @@
         <v>1123</v>
       </c>
       <c r="E417" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -13590,7 +13599,7 @@
         <v>1124</v>
       </c>
       <c r="E418" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -13607,7 +13616,7 @@
         <v>1125</v>
       </c>
       <c r="E419" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -13624,7 +13633,7 @@
         <v>1126</v>
       </c>
       <c r="E420" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -13641,7 +13650,7 @@
         <v>1127</v>
       </c>
       <c r="E421" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -13658,7 +13667,7 @@
         <v>1128</v>
       </c>
       <c r="E422" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -13675,7 +13684,7 @@
         <v>1129</v>
       </c>
       <c r="E423" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -13692,7 +13701,7 @@
         <v>1130</v>
       </c>
       <c r="E424" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -13709,7 +13718,7 @@
         <v>1131</v>
       </c>
       <c r="E425" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -13726,7 +13735,7 @@
         <v>1132</v>
       </c>
       <c r="E426" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -13743,7 +13752,7 @@
         <v>1133</v>
       </c>
       <c r="E427" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -13760,7 +13769,7 @@
         <v>1134</v>
       </c>
       <c r="E428" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -13777,7 +13786,7 @@
         <v>1135</v>
       </c>
       <c r="E429" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -13794,7 +13803,7 @@
         <v>1136</v>
       </c>
       <c r="E430" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -13811,7 +13820,7 @@
         <v>1137</v>
       </c>
       <c r="E431" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -13828,7 +13837,7 @@
         <v>1138</v>
       </c>
       <c r="E432" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -13845,7 +13854,7 @@
         <v>1139</v>
       </c>
       <c r="E433" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -13862,7 +13871,7 @@
         <v>1140</v>
       </c>
       <c r="E434" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -13879,7 +13888,7 @@
         <v>1141</v>
       </c>
       <c r="E435" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -13896,7 +13905,7 @@
         <v>1142</v>
       </c>
       <c r="E436" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -13913,7 +13922,7 @@
         <v>1143</v>
       </c>
       <c r="E437" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
   </sheetData>

--- a/Alfa_Exp_Record_sort.xlsx
+++ b/Alfa_Exp_Record_sort.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binxu\Documents\Monkey_Visual_Experiment_Data_Processing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F300C-EDE5-40AE-B436-5446611E9CF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="1581">
   <si>
     <t>ephysFN</t>
   </si>
@@ -5421,6 +5415,15 @@
 011 – error</t>
   </si>
   <si>
+    <t>012 at 1252 PM
+selectivity-manifold
+ch 29 (-0.5,-1.7) 4
+80 ms reward, at 1:09, bumped him up tp 100 ms reward
+Bumped to 150, hes been working for over 2 hours, had over 250
+Bumped him up, just going to finish him out. Stopped after 9 blocks, 325 mL
+completed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two blocks completed
 completed
 </t>
@@ -6541,24 +6544,12 @@
   <si>
     <t>Ch. 1 [-2 –3] 2 1, one SU (1/5, new), one hashStarting to lose unit already... merpVery suppressed.  Will go to 20 generations, in case anything crazy happensStart: 11:51 pm, 35 ms rewardStopped, not visually responsive</t>
   </si>
-  <si>
-    <t>012 at 1252 PM
-selectivity-manifold
-ch 29 (-0.5,-1.7) 4
-80 ms reward, at 1:09, bumped him up tp 100 ms reward
-Bumped to 150, hes been working for over 2 hours, had over 250
-Bumped him up, just going to finish him out. Stopped after 9 blocks, 325 mL
-completed`</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-Manifold\alfa-191119a selectivity</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6610,33 +6601,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6678,7 +6658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6710,27 +6690,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6762,24 +6724,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6955,22 +6899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B257" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="93.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6987,7 +6923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7004,7 +6940,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7021,7 +6957,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7038,7 +6974,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7055,7 +6991,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7072,7 +7008,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7089,7 +7025,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7106,7 +7042,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7120,7 +7056,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7137,7 +7073,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7154,7 +7090,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7168,7 +7104,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7185,7 +7121,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7199,7 +7135,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7216,7 +7152,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7230,7 +7166,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7247,7 +7183,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7264,7 +7200,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7281,7 +7217,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7298,7 +7234,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7315,7 +7251,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -7332,7 +7268,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7346,7 +7282,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7360,7 +7296,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7377,7 +7313,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7394,7 +7330,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -7411,7 +7347,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -7428,7 +7364,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7442,7 +7378,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -7456,7 +7392,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -7470,7 +7406,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -7487,7 +7423,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -7504,7 +7440,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -7521,7 +7457,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7538,7 +7474,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7555,7 +7491,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7572,7 +7508,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7589,7 +7525,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7606,7 +7542,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7623,7 +7559,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7640,7 +7576,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7657,7 +7593,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7674,7 +7610,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7688,7 +7624,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7702,7 +7638,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7716,7 +7652,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7733,7 +7669,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7750,7 +7686,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7767,7 +7703,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7781,7 +7717,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7795,7 +7731,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7812,7 +7748,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7829,7 +7765,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7846,7 +7782,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7863,7 +7799,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7880,7 +7816,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7897,7 +7833,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7914,7 +7850,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7931,7 +7867,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7948,7 +7884,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7965,7 +7901,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7979,7 +7915,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7996,7 +7932,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8010,7 +7946,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8027,7 +7963,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8044,7 +7980,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8061,7 +7997,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8078,7 +8014,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8092,7 +8028,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8109,7 +8045,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8126,7 +8062,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8143,7 +8079,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8160,7 +8096,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8177,7 +8113,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8194,7 +8130,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8211,7 +8147,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8228,7 +8164,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8245,7 +8181,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8262,7 +8198,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8279,7 +8215,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8296,7 +8232,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8313,7 +8249,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8330,7 +8266,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8347,7 +8283,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8364,7 +8300,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8381,7 +8317,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8395,7 +8331,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8409,7 +8345,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8426,7 +8362,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8443,7 +8379,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8457,7 +8393,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8474,7 +8410,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8491,7 +8427,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8505,7 +8441,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8522,7 +8458,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8539,7 +8475,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8553,7 +8489,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8570,7 +8506,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8587,7 +8523,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8604,7 +8540,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8618,7 +8554,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8632,7 +8568,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8649,7 +8585,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8666,7 +8602,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8680,7 +8616,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8697,7 +8633,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8714,7 +8650,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8728,7 +8664,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8745,7 +8681,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8762,7 +8698,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8776,7 +8712,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8793,7 +8729,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8810,7 +8746,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8827,7 +8763,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8841,7 +8777,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8855,7 +8791,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8869,7 +8805,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8883,7 +8819,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8900,7 +8836,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8917,7 +8853,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8931,7 +8867,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8948,7 +8884,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8965,7 +8901,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8982,7 +8918,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -8999,7 +8935,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9016,7 +8952,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9033,7 +8969,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9050,7 +8986,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9067,7 +9003,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9084,7 +9020,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9101,7 +9037,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9115,7 +9051,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9132,7 +9068,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9149,7 +9085,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9163,7 +9099,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9180,7 +9116,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9197,7 +9133,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9211,7 +9147,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -9228,7 +9164,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -9245,7 +9181,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -9259,7 +9195,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -9276,7 +9212,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -9290,7 +9226,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -9307,7 +9243,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -9324,7 +9260,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -9338,7 +9274,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -9355,7 +9291,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -9372,7 +9308,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -9386,7 +9322,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -9403,7 +9339,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -9417,7 +9353,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -9434,7 +9370,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -9451,7 +9387,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -9465,7 +9401,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -9482,7 +9418,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -9496,7 +9432,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -9513,7 +9449,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9527,7 +9463,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9544,7 +9480,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9561,7 +9497,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9575,7 +9511,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9592,7 +9528,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9609,7 +9545,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9623,7 +9559,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9637,7 +9573,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9651,7 +9587,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9668,7 +9604,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9682,7 +9618,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9699,7 +9635,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9713,7 +9649,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9727,7 +9663,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9744,7 +9680,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9761,7 +9697,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9775,7 +9711,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9792,7 +9728,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9809,7 +9745,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9823,7 +9759,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9837,7 +9773,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -9851,7 +9787,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9868,7 +9804,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9882,7 +9818,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9896,7 +9832,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9913,7 +9849,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9930,7 +9866,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9944,7 +9880,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9961,7 +9897,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9978,7 +9914,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9992,7 +9928,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10009,7 +9945,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10026,7 +9962,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10040,7 +9976,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10054,7 +9990,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10065,7 +10001,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10082,7 +10018,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10096,7 +10032,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -10113,7 +10049,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -10130,7 +10066,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -10147,7 +10083,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -10164,7 +10100,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -10178,7 +10114,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -10192,7 +10128,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -10209,7 +10145,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -10223,7 +10159,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -10240,7 +10176,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -10254,7 +10190,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -10268,7 +10204,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -10282,7 +10218,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -10299,7 +10235,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -10313,7 +10249,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -10327,7 +10263,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -10344,7 +10280,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -10358,7 +10294,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -10375,7 +10311,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -10392,7 +10328,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -10406,7 +10342,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -10420,7 +10356,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -10437,7 +10373,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -10451,7 +10387,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -10465,10 +10401,10 @@
         <v>1361</v>
       </c>
       <c r="F219" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -10482,7 +10418,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -10496,7 +10432,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -10513,7 +10449,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -10530,7 +10466,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -10544,7 +10480,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -10558,7 +10494,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -10575,7 +10511,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -10589,7 +10525,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -10603,7 +10539,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -10617,7 +10553,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -10634,7 +10570,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -10651,7 +10587,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -10665,7 +10601,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -10679,7 +10615,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -10693,7 +10629,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -10707,7 +10643,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10721,7 +10657,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10735,7 +10671,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10749,7 +10685,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10766,7 +10702,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10783,7 +10719,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10797,7 +10733,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10814,7 +10750,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10831,7 +10767,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10845,7 +10781,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10862,7 +10798,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -10879,7 +10815,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10893,7 +10829,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10910,7 +10846,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10927,7 +10863,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10941,7 +10877,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -10958,7 +10894,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10975,7 +10911,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -10992,7 +10928,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -11009,7 +10945,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -11023,7 +10959,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -11037,7 +10973,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -11051,7 +10987,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -11065,7 +11001,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -11079,7 +11015,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -11093,7 +11029,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -11107,7 +11043,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -11121,7 +11057,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -11135,7 +11071,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -11149,7 +11085,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -11163,7 +11099,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -11177,7 +11113,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -11191,7 +11127,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -11208,7 +11144,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -11222,7 +11158,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11232,14 +11168,11 @@
       <c r="C270" t="s">
         <v>708</v>
       </c>
-      <c r="D270" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -11253,10 +11186,10 @@
         <v>1029</v>
       </c>
       <c r="E271" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -11270,10 +11203,10 @@
         <v>1030</v>
       </c>
       <c r="E272" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -11284,10 +11217,10 @@
         <v>711</v>
       </c>
       <c r="E273" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -11298,10 +11231,10 @@
         <v>712</v>
       </c>
       <c r="E274" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -11315,10 +11248,10 @@
         <v>1031</v>
       </c>
       <c r="E275" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -11329,10 +11262,10 @@
         <v>714</v>
       </c>
       <c r="E276" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -11343,10 +11276,10 @@
         <v>715</v>
       </c>
       <c r="E277" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -11357,10 +11290,10 @@
         <v>716</v>
       </c>
       <c r="E278" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -11371,10 +11304,10 @@
         <v>717</v>
       </c>
       <c r="E279" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -11388,10 +11321,10 @@
         <v>1032</v>
       </c>
       <c r="E280" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -11405,10 +11338,10 @@
         <v>1033</v>
       </c>
       <c r="E281" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -11422,10 +11355,10 @@
         <v>1034</v>
       </c>
       <c r="E282" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -11439,10 +11372,10 @@
         <v>1034</v>
       </c>
       <c r="E283" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -11453,10 +11386,10 @@
         <v>722</v>
       </c>
       <c r="E284" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -11467,10 +11400,10 @@
         <v>723</v>
       </c>
       <c r="E285" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -11484,10 +11417,10 @@
         <v>1035</v>
       </c>
       <c r="E286" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -11501,10 +11434,10 @@
         <v>1036</v>
       </c>
       <c r="E287" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -11515,10 +11448,10 @@
         <v>726</v>
       </c>
       <c r="E288" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -11532,10 +11465,10 @@
         <v>1037</v>
       </c>
       <c r="E289" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -11546,10 +11479,10 @@
         <v>728</v>
       </c>
       <c r="E290" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -11563,10 +11496,10 @@
         <v>1038</v>
       </c>
       <c r="E291" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -11580,10 +11513,10 @@
         <v>1039</v>
       </c>
       <c r="E292" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -11597,10 +11530,10 @@
         <v>1040</v>
       </c>
       <c r="E293" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -11611,10 +11544,10 @@
         <v>732</v>
       </c>
       <c r="E294" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -11628,10 +11561,10 @@
         <v>1041</v>
       </c>
       <c r="E295" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -11645,10 +11578,10 @@
         <v>1042</v>
       </c>
       <c r="E296" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -11662,10 +11595,10 @@
         <v>1043</v>
       </c>
       <c r="E297" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -11676,10 +11609,10 @@
         <v>736</v>
       </c>
       <c r="E298" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -11693,10 +11626,10 @@
         <v>1044</v>
       </c>
       <c r="E299" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -11710,10 +11643,10 @@
         <v>1045</v>
       </c>
       <c r="E300" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -11727,10 +11660,10 @@
         <v>1046</v>
       </c>
       <c r="E301" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -11741,10 +11674,10 @@
         <v>740</v>
       </c>
       <c r="E302" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -11758,10 +11691,10 @@
         <v>1047</v>
       </c>
       <c r="E303" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -11775,10 +11708,10 @@
         <v>1048</v>
       </c>
       <c r="E304" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -11789,10 +11722,10 @@
         <v>743</v>
       </c>
       <c r="E305" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -11806,10 +11739,10 @@
         <v>1049</v>
       </c>
       <c r="E306" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -11823,10 +11756,10 @@
         <v>1050</v>
       </c>
       <c r="E307" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -11840,10 +11773,10 @@
         <v>1051</v>
       </c>
       <c r="E308" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -11854,10 +11787,10 @@
         <v>747</v>
       </c>
       <c r="E309" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -11871,10 +11804,10 @@
         <v>1052</v>
       </c>
       <c r="E310" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -11888,10 +11821,10 @@
         <v>1053</v>
       </c>
       <c r="E311" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -11905,10 +11838,10 @@
         <v>1054</v>
       </c>
       <c r="E312" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -11919,10 +11852,10 @@
         <v>751</v>
       </c>
       <c r="E313" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -11936,10 +11869,10 @@
         <v>1055</v>
       </c>
       <c r="E314" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -11953,10 +11886,10 @@
         <v>1056</v>
       </c>
       <c r="E315" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -11970,10 +11903,10 @@
         <v>1057</v>
       </c>
       <c r="E316" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -11984,10 +11917,10 @@
         <v>755</v>
       </c>
       <c r="E317" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -12001,10 +11934,10 @@
         <v>1058</v>
       </c>
       <c r="E318" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -12018,10 +11951,10 @@
         <v>1059</v>
       </c>
       <c r="E319" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -12032,10 +11965,10 @@
         <v>758</v>
       </c>
       <c r="E320" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -12049,10 +11982,10 @@
         <v>1060</v>
       </c>
       <c r="E321" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -12063,10 +11996,10 @@
         <v>760</v>
       </c>
       <c r="E322" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -12077,10 +12010,10 @@
         <v>761</v>
       </c>
       <c r="E323" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -12091,10 +12024,10 @@
         <v>762</v>
       </c>
       <c r="E324" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -12108,10 +12041,10 @@
         <v>1061</v>
       </c>
       <c r="E325" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -12125,10 +12058,10 @@
         <v>1062</v>
       </c>
       <c r="E326" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -12139,10 +12072,10 @@
         <v>765</v>
       </c>
       <c r="E327" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -12156,10 +12089,10 @@
         <v>1063</v>
       </c>
       <c r="E328" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -12173,10 +12106,10 @@
         <v>1064</v>
       </c>
       <c r="E329" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -12190,10 +12123,10 @@
         <v>1065</v>
       </c>
       <c r="E330" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -12204,10 +12137,10 @@
         <v>769</v>
       </c>
       <c r="E331" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -12218,10 +12151,10 @@
         <v>770</v>
       </c>
       <c r="E332" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -12235,10 +12168,10 @@
         <v>1066</v>
       </c>
       <c r="E333" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -12252,10 +12185,10 @@
         <v>1067</v>
       </c>
       <c r="E334" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -12269,10 +12202,10 @@
         <v>1068</v>
       </c>
       <c r="E335" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -12283,10 +12216,10 @@
         <v>774</v>
       </c>
       <c r="E336" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -12297,10 +12230,10 @@
         <v>775</v>
       </c>
       <c r="E337" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -12314,10 +12247,10 @@
         <v>1069</v>
       </c>
       <c r="E338" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -12331,10 +12264,10 @@
         <v>1070</v>
       </c>
       <c r="E339" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -12348,10 +12281,10 @@
         <v>1071</v>
       </c>
       <c r="E340" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -12362,10 +12295,10 @@
         <v>779</v>
       </c>
       <c r="E341" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -12376,10 +12309,10 @@
         <v>780</v>
       </c>
       <c r="E342" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -12393,10 +12326,10 @@
         <v>1072</v>
       </c>
       <c r="E343" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -12410,10 +12343,10 @@
         <v>1073</v>
       </c>
       <c r="E344" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -12427,10 +12360,10 @@
         <v>1074</v>
       </c>
       <c r="E345" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -12441,10 +12374,10 @@
         <v>784</v>
       </c>
       <c r="E346" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -12458,10 +12391,10 @@
         <v>1075</v>
       </c>
       <c r="E347" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -12475,10 +12408,10 @@
         <v>1076</v>
       </c>
       <c r="E348" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -12492,10 +12425,10 @@
         <v>1077</v>
       </c>
       <c r="E349" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -12506,10 +12439,10 @@
         <v>788</v>
       </c>
       <c r="E350" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -12523,10 +12456,10 @@
         <v>1078</v>
       </c>
       <c r="E351" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -12540,10 +12473,10 @@
         <v>1079</v>
       </c>
       <c r="E352" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -12557,10 +12490,10 @@
         <v>1080</v>
       </c>
       <c r="E353" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -12571,10 +12504,10 @@
         <v>792</v>
       </c>
       <c r="E354" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -12588,10 +12521,10 @@
         <v>1081</v>
       </c>
       <c r="E355" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -12605,10 +12538,10 @@
         <v>1082</v>
       </c>
       <c r="E356" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -12622,10 +12555,10 @@
         <v>1083</v>
       </c>
       <c r="E357" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -12636,10 +12569,10 @@
         <v>796</v>
       </c>
       <c r="E358" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -12653,10 +12586,10 @@
         <v>1084</v>
       </c>
       <c r="E359" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -12670,10 +12603,10 @@
         <v>1085</v>
       </c>
       <c r="E360" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -12687,10 +12620,10 @@
         <v>1086</v>
       </c>
       <c r="E361" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -12701,10 +12634,10 @@
         <v>800</v>
       </c>
       <c r="E362" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -12715,10 +12648,10 @@
         <v>801</v>
       </c>
       <c r="E363" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -12732,10 +12665,10 @@
         <v>1087</v>
       </c>
       <c r="E364" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -12746,10 +12679,10 @@
         <v>803</v>
       </c>
       <c r="E365" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -12763,10 +12696,10 @@
         <v>1088</v>
       </c>
       <c r="E366" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -12780,10 +12713,10 @@
         <v>1089</v>
       </c>
       <c r="E367" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -12797,10 +12730,10 @@
         <v>1090</v>
       </c>
       <c r="E368" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -12811,10 +12744,10 @@
         <v>807</v>
       </c>
       <c r="E369" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -12828,10 +12761,10 @@
         <v>1091</v>
       </c>
       <c r="E370" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -12842,10 +12775,10 @@
         <v>809</v>
       </c>
       <c r="E371" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -12859,10 +12792,10 @@
         <v>1092</v>
       </c>
       <c r="E372" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -12876,10 +12809,10 @@
         <v>1093</v>
       </c>
       <c r="E373" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -12893,10 +12826,10 @@
         <v>1094</v>
       </c>
       <c r="E374" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -12907,10 +12840,10 @@
         <v>813</v>
       </c>
       <c r="E375" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -12924,10 +12857,10 @@
         <v>1095</v>
       </c>
       <c r="E376" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -12941,10 +12874,10 @@
         <v>1096</v>
       </c>
       <c r="E377" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -12955,10 +12888,10 @@
         <v>816</v>
       </c>
       <c r="E378" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -12969,10 +12902,10 @@
         <v>817</v>
       </c>
       <c r="E379" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -12986,10 +12919,10 @@
         <v>1097</v>
       </c>
       <c r="E380" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -13003,10 +12936,10 @@
         <v>1098</v>
       </c>
       <c r="E381" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -13020,10 +12953,10 @@
         <v>1099</v>
       </c>
       <c r="E382" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -13034,10 +12967,10 @@
         <v>821</v>
       </c>
       <c r="E383" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -13051,10 +12984,10 @@
         <v>1100</v>
       </c>
       <c r="E384" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -13068,10 +13001,10 @@
         <v>1101</v>
       </c>
       <c r="E385" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -13085,10 +13018,10 @@
         <v>1102</v>
       </c>
       <c r="E386" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -13102,10 +13035,10 @@
         <v>1103</v>
       </c>
       <c r="E387" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -13119,10 +13052,10 @@
         <v>1104</v>
       </c>
       <c r="E388" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -13133,10 +13066,10 @@
         <v>827</v>
       </c>
       <c r="E389" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -13150,10 +13083,10 @@
         <v>1105</v>
       </c>
       <c r="E390" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -13167,10 +13100,10 @@
         <v>1106</v>
       </c>
       <c r="E391" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -13184,10 +13117,10 @@
         <v>1107</v>
       </c>
       <c r="E392" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -13198,10 +13131,10 @@
         <v>831</v>
       </c>
       <c r="E393" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -13215,10 +13148,10 @@
         <v>1108</v>
       </c>
       <c r="E394" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -13232,10 +13165,10 @@
         <v>1109</v>
       </c>
       <c r="E395" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -13249,10 +13182,10 @@
         <v>1110</v>
       </c>
       <c r="E396" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -13263,10 +13196,10 @@
         <v>835</v>
       </c>
       <c r="E397" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -13280,10 +13213,10 @@
         <v>1111</v>
       </c>
       <c r="E398" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -13297,10 +13230,10 @@
         <v>1112</v>
       </c>
       <c r="E399" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -13314,10 +13247,10 @@
         <v>1113</v>
       </c>
       <c r="E400" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -13331,10 +13264,10 @@
         <v>1114</v>
       </c>
       <c r="E401" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -13345,10 +13278,10 @@
         <v>840</v>
       </c>
       <c r="E402" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -13362,10 +13295,10 @@
         <v>1115</v>
       </c>
       <c r="E403" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -13379,10 +13312,10 @@
         <v>1116</v>
       </c>
       <c r="E404" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -13393,10 +13326,10 @@
         <v>843</v>
       </c>
       <c r="E405" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -13407,10 +13340,10 @@
         <v>844</v>
       </c>
       <c r="E406" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -13424,10 +13357,10 @@
         <v>1117</v>
       </c>
       <c r="E407" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -13441,10 +13374,10 @@
         <v>1118</v>
       </c>
       <c r="E408" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -13458,10 +13391,10 @@
         <v>1119</v>
       </c>
       <c r="E409" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -13475,10 +13408,10 @@
         <v>1120</v>
       </c>
       <c r="E410" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -13489,10 +13422,10 @@
         <v>849</v>
       </c>
       <c r="E411" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -13503,10 +13436,10 @@
         <v>850</v>
       </c>
       <c r="E412" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -13520,10 +13453,10 @@
         <v>1121</v>
       </c>
       <c r="E413" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -13534,10 +13467,10 @@
         <v>852</v>
       </c>
       <c r="E414" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -13548,10 +13481,10 @@
         <v>853</v>
       </c>
       <c r="E415" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -13565,10 +13498,10 @@
         <v>1122</v>
       </c>
       <c r="E416" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -13582,10 +13515,10 @@
         <v>1123</v>
       </c>
       <c r="E417" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -13599,10 +13532,10 @@
         <v>1124</v>
       </c>
       <c r="E418" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -13616,10 +13549,10 @@
         <v>1125</v>
       </c>
       <c r="E419" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -13633,10 +13566,10 @@
         <v>1126</v>
       </c>
       <c r="E420" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -13650,10 +13583,10 @@
         <v>1127</v>
       </c>
       <c r="E421" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -13667,10 +13600,10 @@
         <v>1128</v>
       </c>
       <c r="E422" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -13684,10 +13617,10 @@
         <v>1129</v>
       </c>
       <c r="E423" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -13701,10 +13634,10 @@
         <v>1130</v>
       </c>
       <c r="E424" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -13718,10 +13651,10 @@
         <v>1131</v>
       </c>
       <c r="E425" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -13735,10 +13668,10 @@
         <v>1132</v>
       </c>
       <c r="E426" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -13752,10 +13685,10 @@
         <v>1133</v>
       </c>
       <c r="E427" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -13769,10 +13702,10 @@
         <v>1134</v>
       </c>
       <c r="E428" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -13786,10 +13719,10 @@
         <v>1135</v>
       </c>
       <c r="E429" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -13803,10 +13736,10 @@
         <v>1136</v>
       </c>
       <c r="E430" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -13820,10 +13753,10 @@
         <v>1137</v>
       </c>
       <c r="E431" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -13837,10 +13770,10 @@
         <v>1138</v>
       </c>
       <c r="E432" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -13854,10 +13787,10 @@
         <v>1139</v>
       </c>
       <c r="E433" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -13871,10 +13804,10 @@
         <v>1140</v>
       </c>
       <c r="E434" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -13888,10 +13821,10 @@
         <v>1141</v>
       </c>
       <c r="E435" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -13905,10 +13838,10 @@
         <v>1142</v>
       </c>
       <c r="E436" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -13922,7 +13855,7 @@
         <v>1143</v>
       </c>
       <c r="E437" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
   </sheetData>
